--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2111585.471960822</v>
+        <v>-2114445.304196091</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152.0747039460366</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27.18160699771715</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>60.90921116171354</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -753,13 +753,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>34.41171625890774</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>77.21828938360578</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>38.11163636040566</v>
       </c>
       <c r="J4" t="n">
-        <v>20.0040272933122</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>257.8572432717521</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>382.661229936141</v>
+        <v>12.42254329489922</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>108.8319995640694</v>
       </c>
       <c r="I5" t="n">
-        <v>99.43720189476393</v>
+        <v>99.43720189476397</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724293</v>
+        <v>34.66253762724301</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3876437926213</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>382.661229936141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>13.24827080966415</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8024773971665</v>
       </c>
       <c r="H6" t="n">
-        <v>97.35224439075469</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>46.4646512129551</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.99985954238333</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,10 +1032,10 @@
         <v>225.8399978858403</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>115.5512992658152</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>16.97761051934475</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.97761051934528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>290.3618821770507</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>2.557953848736361e-13</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092505</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>52.39333130435291</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1221,13 +1221,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>20.27697994470579</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1275,10 +1275,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.64306714674009</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>64.27748366064597</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923926</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.3094366145974</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>41.55695577161152</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>38.19083539427069</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1667,13 +1667,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174119</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>66.39615665301106</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>80.08971311158616</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722596</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>34.22340015155905</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>42.7157213271115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>241.447468747372</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>36.00502760852017</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>90.69284018412959</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,13 +3187,13 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065889</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545302</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3794,13 +3794,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.23218154912181</v>
+        <v>231.878000674353</v>
       </c>
       <c r="C2" t="n">
-        <v>28.23218154912181</v>
+        <v>42.45821565786837</v>
       </c>
       <c r="D2" t="n">
-        <v>28.23218154912181</v>
+        <v>42.45821565786837</v>
       </c>
       <c r="E2" t="n">
-        <v>28.23218154912181</v>
+        <v>42.45821565786837</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912181</v>
+        <v>42.45821565786837</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>42.45821565786837</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="S2" t="n">
-        <v>750.10234866528</v>
+        <v>672.2420264262249</v>
       </c>
       <c r="T2" t="n">
-        <v>750.10234866528</v>
+        <v>482.8222414097403</v>
       </c>
       <c r="U2" t="n">
-        <v>750.10234866528</v>
+        <v>421.2977856908377</v>
       </c>
       <c r="V2" t="n">
-        <v>750.10234866528</v>
+        <v>421.2977856908377</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487952</v>
+        <v>421.2977856908377</v>
       </c>
       <c r="X2" t="n">
-        <v>371.2627786323103</v>
+        <v>421.2977856908377</v>
       </c>
       <c r="Y2" t="n">
-        <v>181.8429936158254</v>
+        <v>421.2977856908377</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>336.2349471645398</v>
+        <v>503.8887395405588</v>
       </c>
       <c r="C3" t="n">
-        <v>336.2349471645398</v>
+        <v>329.4357102594319</v>
       </c>
       <c r="D3" t="n">
-        <v>187.3005375032885</v>
+        <v>329.4357102594319</v>
       </c>
       <c r="E3" t="n">
-        <v>187.3005375032885</v>
+        <v>329.4357102594319</v>
       </c>
       <c r="F3" t="n">
-        <v>187.3005375032885</v>
+        <v>329.4357102594319</v>
       </c>
       <c r="G3" t="n">
-        <v>49.76135632573767</v>
+        <v>191.896529081881</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>90.03616812153783</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>30.53661367296056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264284</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S3" t="n">
-        <v>525.6547321810247</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T3" t="n">
-        <v>525.6547321810247</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="U3" t="n">
-        <v>525.6547321810247</v>
+        <v>672.1040765606269</v>
       </c>
       <c r="V3" t="n">
-        <v>525.6547321810247</v>
+        <v>672.1040765606269</v>
       </c>
       <c r="W3" t="n">
-        <v>525.6547321810247</v>
+        <v>672.1040765606269</v>
       </c>
       <c r="X3" t="n">
-        <v>525.6547321810247</v>
+        <v>672.1040765606269</v>
       </c>
       <c r="Y3" t="n">
-        <v>336.2349471645398</v>
+        <v>672.1040765606269</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.45491281910429</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="C4" t="n">
-        <v>49.45491281910429</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="D4" t="n">
-        <v>49.45491281910429</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="E4" t="n">
-        <v>49.45491281910429</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="F4" t="n">
-        <v>49.45491281910429</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="G4" t="n">
-        <v>49.45491281910429</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="H4" t="n">
-        <v>49.45491281910429</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="I4" t="n">
-        <v>49.45491281910429</v>
+        <v>711.6057462810311</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404146</v>
+        <v>711.6057462810311</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>697.3589686102952</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>709.3965921992913</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>725.3468614886966</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>748.7753949309528</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="P4" t="n">
-        <v>49.45491281910429</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.45491281910429</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R4" t="n">
-        <v>49.45491281910429</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S4" t="n">
-        <v>49.45491281910429</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T4" t="n">
-        <v>49.45491281910429</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="U4" t="n">
-        <v>49.45491281910429</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="V4" t="n">
-        <v>49.45491281910429</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="W4" t="n">
-        <v>49.45491281910429</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="X4" t="n">
-        <v>49.45491281910429</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="Y4" t="n">
-        <v>49.45491281910429</v>
+        <v>750.1023486652792</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>778.04287324606</v>
+        <v>646.2676060390386</v>
       </c>
       <c r="C5" t="n">
-        <v>778.04287324606</v>
+        <v>646.2676060390386</v>
       </c>
       <c r="D5" t="n">
-        <v>778.04287324606</v>
+        <v>646.2676060390386</v>
       </c>
       <c r="E5" t="n">
-        <v>778.04287324606</v>
+        <v>260.4793534407943</v>
       </c>
       <c r="F5" t="n">
-        <v>517.5810113554013</v>
+        <v>253.5338526915909</v>
       </c>
       <c r="G5" t="n">
-        <v>131.0545164704104</v>
+        <v>240.9858291613896</v>
       </c>
       <c r="H5" t="n">
         <v>131.0545164704104</v>
       </c>
       <c r="I5" t="n">
-        <v>30.61289839489128</v>
+        <v>30.61289839489125</v>
       </c>
       <c r="J5" t="n">
-        <v>93.38580827121558</v>
+        <v>93.38580827121541</v>
       </c>
       <c r="K5" t="n">
-        <v>238.2046462235855</v>
+        <v>238.2046462235851</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7669823190663</v>
+        <v>454.7669823190654</v>
       </c>
       <c r="M5" t="n">
-        <v>727.4037457643112</v>
+        <v>727.4037457643105</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.065865453894</v>
+        <v>1009.065865453893</v>
       </c>
       <c r="O5" t="n">
-        <v>1261.696156831937</v>
+        <v>1261.696156831936</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.809264855781</v>
+        <v>1442.80926485578</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.644919744564</v>
+        <v>1530.644919744562</v>
       </c>
       <c r="R5" t="n">
-        <v>1495.632255474621</v>
+        <v>1495.63225547462</v>
       </c>
       <c r="S5" t="n">
-        <v>1495.632255474621</v>
+        <v>1350.796251643689</v>
       </c>
       <c r="T5" t="n">
-        <v>1495.632255474621</v>
+        <v>1350.796251643689</v>
       </c>
       <c r="U5" t="n">
-        <v>1495.632255474621</v>
+        <v>1350.796251643689</v>
       </c>
       <c r="V5" t="n">
-        <v>1164.569368131051</v>
+        <v>1019.733364300119</v>
       </c>
       <c r="W5" t="n">
-        <v>1164.569368131051</v>
+        <v>1019.733364300119</v>
       </c>
       <c r="X5" t="n">
-        <v>1164.569368131051</v>
+        <v>646.2676060390386</v>
       </c>
       <c r="Y5" t="n">
-        <v>778.04287324606</v>
+        <v>646.2676060390386</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>335.1199449192455</v>
+        <v>181.1692097149223</v>
       </c>
       <c r="C6" t="n">
-        <v>335.1199449192455</v>
+        <v>181.1692097149223</v>
       </c>
       <c r="D6" t="n">
-        <v>335.1199449192455</v>
+        <v>167.7871179879888</v>
       </c>
       <c r="E6" t="n">
-        <v>175.8824899137901</v>
+        <v>167.7871179879888</v>
       </c>
       <c r="F6" t="n">
-        <v>175.8824899137901</v>
+        <v>167.7871179879888</v>
       </c>
       <c r="G6" t="n">
-        <v>175.8824899137901</v>
+        <v>30.61289839489125</v>
       </c>
       <c r="H6" t="n">
-        <v>77.54688951908835</v>
+        <v>30.61289839489125</v>
       </c>
       <c r="I6" t="n">
-        <v>30.61289839489128</v>
+        <v>30.61289839489125</v>
       </c>
       <c r="J6" t="n">
-        <v>49.18216652275329</v>
+        <v>49.18216652275318</v>
       </c>
       <c r="K6" t="n">
-        <v>159.0748281477055</v>
+        <v>159.0748281477053</v>
       </c>
       <c r="L6" t="n">
-        <v>353.1616144543729</v>
+        <v>353.1616144543725</v>
       </c>
       <c r="M6" t="n">
-        <v>599.0086077642253</v>
+        <v>599.0086077642248</v>
       </c>
       <c r="N6" t="n">
-        <v>865.771084362177</v>
+        <v>865.7710843621763</v>
       </c>
       <c r="O6" t="n">
-        <v>1087.586838970549</v>
+        <v>1087.586838970548</v>
       </c>
       <c r="P6" t="n">
-        <v>1246.280471422853</v>
+        <v>1246.280471422852</v>
       </c>
       <c r="Q6" t="n">
-        <v>1302.443765680491</v>
+        <v>1302.44376568049</v>
       </c>
       <c r="R6" t="n">
-        <v>1251.938857051821</v>
+        <v>1302.44376568049</v>
       </c>
       <c r="S6" t="n">
-        <v>1251.938857051821</v>
+        <v>1302.44376568049</v>
       </c>
       <c r="T6" t="n">
-        <v>1056.026476237428</v>
+        <v>1106.531384866097</v>
       </c>
       <c r="U6" t="n">
-        <v>827.9052662517304</v>
+        <v>878.4101748803994</v>
       </c>
       <c r="V6" t="n">
-        <v>827.9052662517304</v>
+        <v>643.2580666486567</v>
       </c>
       <c r="W6" t="n">
-        <v>711.1867821448463</v>
+        <v>389.0207099204551</v>
       </c>
       <c r="X6" t="n">
-        <v>503.3352819393136</v>
+        <v>181.1692097149223</v>
       </c>
       <c r="Y6" t="n">
-        <v>503.3352819393136</v>
+        <v>181.1692097149223</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.61289839489128</v>
+        <v>30.61289839489125</v>
       </c>
       <c r="C7" t="n">
-        <v>30.61289839489128</v>
+        <v>30.61289839489125</v>
       </c>
       <c r="D7" t="n">
-        <v>30.61289839489128</v>
+        <v>30.61289839489125</v>
       </c>
       <c r="E7" t="n">
-        <v>30.61289839489128</v>
+        <v>30.61289839489125</v>
       </c>
       <c r="F7" t="n">
-        <v>30.61289839489128</v>
+        <v>30.61289839489125</v>
       </c>
       <c r="G7" t="n">
-        <v>30.61289839489128</v>
+        <v>30.61289839489125</v>
       </c>
       <c r="H7" t="n">
-        <v>30.61289839489128</v>
+        <v>30.61289839489125</v>
       </c>
       <c r="I7" t="n">
-        <v>30.61289839489128</v>
+        <v>30.61289839489125</v>
       </c>
       <c r="J7" t="n">
-        <v>30.61289839489128</v>
+        <v>30.61289839489125</v>
       </c>
       <c r="K7" t="n">
-        <v>51.49054881713281</v>
+        <v>51.49054881713269</v>
       </c>
       <c r="L7" t="n">
-        <v>108.112551136349</v>
+        <v>108.1125511363487</v>
       </c>
       <c r="M7" t="n">
-        <v>171.0707966055992</v>
+        <v>171.0707966055989</v>
       </c>
       <c r="N7" t="n">
-        <v>240.3895616221365</v>
+        <v>240.3895616221361</v>
       </c>
       <c r="O7" t="n">
-        <v>284.1035717645259</v>
+        <v>284.1035717645254</v>
       </c>
       <c r="P7" t="n">
-        <v>302.4464881354704</v>
+        <v>302.4464881354698</v>
       </c>
       <c r="Q7" t="n">
-        <v>302.4464881354704</v>
+        <v>302.4464881354698</v>
       </c>
       <c r="R7" t="n">
-        <v>302.4464881354704</v>
+        <v>302.4464881354698</v>
       </c>
       <c r="S7" t="n">
-        <v>302.4464881354704</v>
+        <v>302.4464881354698</v>
       </c>
       <c r="T7" t="n">
-        <v>302.4464881354704</v>
+        <v>302.4464881354698</v>
       </c>
       <c r="U7" t="n">
-        <v>302.4464881354704</v>
+        <v>302.4464881354698</v>
       </c>
       <c r="V7" t="n">
-        <v>47.76199992958348</v>
+        <v>47.76199992958291</v>
       </c>
       <c r="W7" t="n">
-        <v>47.76199992958348</v>
+        <v>47.76199992958291</v>
       </c>
       <c r="X7" t="n">
-        <v>47.76199992958348</v>
+        <v>30.61289839489125</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.61289839489128</v>
+        <v>30.61289839489125</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1983.4026147697</v>
+        <v>724.5626859657664</v>
       </c>
       <c r="C8" t="n">
-        <v>1614.440097829288</v>
+        <v>355.6001690253547</v>
       </c>
       <c r="D8" t="n">
-        <v>1256.174399222538</v>
+        <v>355.6001690253547</v>
       </c>
       <c r="E8" t="n">
-        <v>870.3861466242934</v>
+        <v>62.30533854348519</v>
       </c>
       <c r="F8" t="n">
-        <v>459.4002418346858</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G8" t="n">
         <v>43.36919653809306</v>
@@ -4805,10 +4805,10 @@
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232727</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
@@ -4829,25 +4829,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V8" t="n">
-        <v>1983.4026147697</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W8" t="n">
-        <v>1983.4026147697</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="X8" t="n">
-        <v>1983.4026147697</v>
+        <v>1111.162526029888</v>
       </c>
       <c r="Y8" t="n">
-        <v>1983.4026147697</v>
+        <v>1111.162526029888</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>525.9940904859268</v>
+        <v>693.0104463829871</v>
       </c>
       <c r="C9" t="n">
-        <v>351.5410612047998</v>
+        <v>518.5574171018601</v>
       </c>
       <c r="D9" t="n">
-        <v>202.6066515435486</v>
+        <v>369.6230074406088</v>
       </c>
       <c r="E9" t="n">
-        <v>43.36919653809306</v>
+        <v>210.3855524351533</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>63.8509944620383</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>63.8509944620383</v>
       </c>
       <c r="H9" t="n">
         <v>43.36919653809306</v>
@@ -4908,25 +4908,25 @@
         <v>1766.227047333486</v>
       </c>
       <c r="S9" t="n">
-        <v>1627.262386835204</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="T9" t="n">
-        <v>1432.55206530918</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="U9" t="n">
-        <v>1204.450475442444</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="V9" t="n">
-        <v>969.2983672107016</v>
+        <v>1531.074939101743</v>
       </c>
       <c r="W9" t="n">
-        <v>715.0610104825</v>
+        <v>1276.837582373542</v>
       </c>
       <c r="X9" t="n">
-        <v>715.0610104825</v>
+        <v>1068.986082168009</v>
       </c>
       <c r="Y9" t="n">
-        <v>694.2094275059949</v>
+        <v>861.2257834030552</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>276.6738474079218</v>
+        <v>212.305379466</v>
       </c>
       <c r="C10" t="n">
-        <v>276.6738474079218</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>276.6738474079218</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>276.6738474079218</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>276.6738474079218</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>211.7470962355521</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
         <v>43.36919653809306</v>
@@ -4993,19 +4993,19 @@
         <v>497.4664265514519</v>
       </c>
       <c r="U10" t="n">
-        <v>497.4664265514519</v>
+        <v>212.305379466</v>
       </c>
       <c r="V10" t="n">
-        <v>497.4664265514519</v>
+        <v>212.305379466</v>
       </c>
       <c r="W10" t="n">
-        <v>497.4664265514519</v>
+        <v>212.305379466</v>
       </c>
       <c r="X10" t="n">
-        <v>497.4664265514519</v>
+        <v>212.305379466</v>
       </c>
       <c r="Y10" t="n">
-        <v>276.6738474079218</v>
+        <v>212.305379466</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5030,61 +5030,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969314</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811332</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1649.809252446351</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1360.39208240939</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1132.402531511373</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5264,19 +5264,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5285,40 +5285,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962605</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998425</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998425</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138402</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,49 +5516,49 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452622</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718139</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400703</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400703</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400703</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>365.9405071576772</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>219.0505596597668</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854705</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648818</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138402</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.50206557031</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,67 +5732,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273902</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273902</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1733.574748442456</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1478.890260236569</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1189.473090199608</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>961.4835393015907</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>740.6909601580605</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6069,19 +6069,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6494,7 +6494,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6540,19 +6540,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>267.5122958789771</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6683,13 +6683,13 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6701,16 +6701,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6835,13 +6835,13 @@
         <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580113</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954147</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150016</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,16 +7351,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
@@ -7406,16 +7406,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7445,7 +7445,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.0944824954149</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,31 +7588,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>230.659137717444</v>
+        <v>195.2082544971608</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,10 +22559,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>289.7122191085052</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>25.91829388988697</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>89.12303861516313</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.205513512149</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>39.70888054695401</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101247</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>213.9468079295573</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>80.03780599355811</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.4949402405086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>122.8084169651573</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>44.73700564187217</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>143.8269525734171</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>74.83129810813925</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1345820.600683793</v>
+        <v>1345820.600683794</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1345820.600683793</v>
+        <v>1345820.600683794</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1345820.600683793</v>
+        <v>1345820.600683794</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1345820.600683793</v>
+        <v>1345820.600683794</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1345820.600683793</v>
+        <v>1345820.600683794</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1345820.600683793</v>
+        <v>1345820.600683794</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1345820.600683793</v>
+        <v>1345820.600683794</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>67700.85635772868</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="D2" t="n">
         <v>82104.17698642828</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.65996900066</v>
+        <v>80714.65996900064</v>
       </c>
       <c r="G2" t="n">
         <v>80714.6599690006</v>
       </c>
       <c r="H2" t="n">
+        <v>80714.65996900058</v>
+      </c>
+      <c r="I2" t="n">
+        <v>80714.65996900055</v>
+      </c>
+      <c r="J2" t="n">
         <v>80714.65996900057</v>
       </c>
-      <c r="I2" t="n">
-        <v>80714.65996900058</v>
-      </c>
-      <c r="J2" t="n">
-        <v>80714.65996900063</v>
-      </c>
       <c r="K2" t="n">
-        <v>80714.65996900058</v>
+        <v>80714.65996900061</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="M2" t="n">
+        <v>82104.17698642831</v>
+      </c>
+      <c r="N2" t="n">
+        <v>82104.17698642833</v>
+      </c>
+      <c r="O2" t="n">
         <v>82104.17698642837</v>
       </c>
-      <c r="N2" t="n">
-        <v>82104.17698642839</v>
-      </c>
-      <c r="O2" t="n">
-        <v>82104.17698642836</v>
-      </c>
       <c r="P2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.0468996527</v>
+        <v>216004.0468996526</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.5112960593</v>
+        <v>167084.5112960597</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742648</v>
+        <v>601443.2075742652</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.67010838327</v>
+        <v>50221.67010838322</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064534</v>
+        <v>59784.0211606454</v>
       </c>
       <c r="M3" t="n">
         <v>157146.3805515979</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196327.1528969923</v>
+        <v>196327.1528969924</v>
       </c>
       <c r="C4" t="n">
-        <v>221112.0537468111</v>
+        <v>221112.0537468112</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186746</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186744</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186748</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186744</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186739</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
@@ -26445,19 +26445,19 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>22817.55530496086</v>
+        <v>22817.55530496085</v>
       </c>
       <c r="M4" t="n">
         <v>22817.55530496084</v>
       </c>
       <c r="N4" t="n">
-        <v>22817.55530496084</v>
+        <v>22817.55530496089</v>
       </c>
       <c r="O4" t="n">
-        <v>22817.55530496084</v>
+        <v>22817.55530496083</v>
       </c>
       <c r="P4" t="n">
-        <v>22817.55530496082</v>
+        <v>22817.55530496083</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.97598790124</v>
+        <v>72511.9759879012</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-776968.9994717225</v>
+        <v>-777329.08248744</v>
       </c>
       <c r="C6" t="n">
-        <v>-427523.8996479367</v>
+        <v>-427523.8996479366</v>
       </c>
       <c r="D6" t="n">
-        <v>-344382.406254401</v>
+        <v>-344382.4062544014</v>
       </c>
       <c r="E6" t="n">
-        <v>-636677.7734710388</v>
+        <v>-636712.5113964747</v>
       </c>
       <c r="F6" t="n">
-        <v>-35234.56589677386</v>
+        <v>-35269.30382220952</v>
       </c>
       <c r="G6" t="n">
-        <v>-35234.56589677394</v>
+        <v>-35269.30382220959</v>
       </c>
       <c r="H6" t="n">
-        <v>-35234.56589677397</v>
+        <v>-35269.30382220961</v>
       </c>
       <c r="I6" t="n">
-        <v>-35234.56589677393</v>
+        <v>-35269.30382220962</v>
       </c>
       <c r="J6" t="n">
-        <v>-84299.51062531849</v>
+        <v>-84334.24855075419</v>
       </c>
       <c r="K6" t="n">
-        <v>-85456.23600515717</v>
+        <v>-85490.97393059278</v>
       </c>
       <c r="L6" t="n">
-        <v>-103661.5153330932</v>
+        <v>-103661.5153330933</v>
       </c>
       <c r="M6" t="n">
-        <v>-201023.8747240457</v>
+        <v>-201023.8747240459</v>
       </c>
       <c r="N6" t="n">
-        <v>-43877.49417244781</v>
+        <v>-43877.49417244795</v>
       </c>
       <c r="O6" t="n">
-        <v>-43877.49417244788</v>
+        <v>-43877.49417244786</v>
       </c>
       <c r="P6" t="n">
-        <v>-43877.49417244783</v>
+        <v>-43877.49417244786</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836635</v>
+        <v>716.4483122836632</v>
       </c>
       <c r="D3" t="n">
         <v>853.710664537684</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>382.661229936141</v>
+        <v>382.6612299361406</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>167.9783713707589</v>
+        <v>167.9783713707587</v>
       </c>
       <c r="D3" t="n">
-        <v>137.2623522540205</v>
+        <v>137.2623522540208</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039893</v>
+        <v>514.2648358039897</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698209</v>
+        <v>195.1356427698207</v>
       </c>
       <c r="D4" t="n">
-        <v>159.4537267900222</v>
+        <v>159.4537267900226</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734847</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698209</v>
+        <v>195.1356427698207</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900223</v>
+        <v>159.4537267900226</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734847</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698209</v>
+        <v>195.1356427698207</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900222</v>
+        <v>159.4537267900226</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734847</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>190.2600494033168</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>72.59234293592988</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27473,13 +27473,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>66.43004109183195</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>148.6454790264851</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098435</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27555,10 +27555,10 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>87.59558341046102</v>
       </c>
       <c r="J4" t="n">
-        <v>37.06597233494195</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>149.0188024699593</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>29.76131335875826</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9780130577769</v>
+        <v>201.1460134937075</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3876437926213</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.487799365049</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.576708719912631</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>134.1967947549746</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8024773971665</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.35224439075471</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>46.46465121295512</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.99985954238338</v>
       </c>
       <c r="S6" t="n">
         <v>143.0590333442028</v>
@@ -27752,10 +27752,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>136.1436838951044</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>116.5978353037442</v>
       </c>
       <c r="J7" t="n">
-        <v>35.65413415037889</v>
+        <v>35.65413415037894</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>43.32130647461265</v>
+        <v>43.3213064746127</v>
       </c>
       <c r="R7" t="n">
         <v>119.2023528106941</v>
       </c>
       <c r="S7" t="n">
-        <v>201.5013289443856</v>
+        <v>201.5013289443857</v>
       </c>
       <c r="T7" t="n">
         <v>222.4254139074074</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>208.7320448696924</v>
       </c>
       <c r="Y7" t="n">
-        <v>201.6070428327495</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>91.56848789521104</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T8" t="n">
         <v>208.0722578696039</v>
@@ -27910,13 +27910,13 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>275.358927165782</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27941,13 +27941,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>74.22383331714936</v>
       </c>
       <c r="I9" t="n">
         <v>36.29946757904886</v>
@@ -27980,13 +27980,13 @@
         <v>31.66886087721433</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27995,10 +27995,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>185.0396286305643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>102.1740174502858</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>3.92562120111927</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.751639752785258e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,19 +28138,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-7.333857380491618e-13</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,10 +28375,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28387,13 +28387,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.092834328777952e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28570,10 +28570,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28612,16 +28612,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28807,16 +28807,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,13 +28849,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30514,13 +30514,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,46 +31121,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.880194220235831</v>
+        <v>2.88019422023583</v>
       </c>
       <c r="H5" t="n">
-        <v>29.49678905799021</v>
+        <v>29.4967890579902</v>
       </c>
       <c r="I5" t="n">
-        <v>111.038687675642</v>
+        <v>111.0386876756419</v>
       </c>
       <c r="J5" t="n">
-        <v>244.4528841997411</v>
+        <v>244.452884199741</v>
       </c>
       <c r="K5" t="n">
-        <v>366.3715055423239</v>
+        <v>366.3715055423237</v>
       </c>
       <c r="L5" t="n">
-        <v>454.5162494098663</v>
+        <v>454.5162494098661</v>
       </c>
       <c r="M5" t="n">
-        <v>505.7369033739852</v>
+        <v>505.736903373985</v>
       </c>
       <c r="N5" t="n">
-        <v>513.9202552022304</v>
+        <v>513.9202552022301</v>
       </c>
       <c r="O5" t="n">
-        <v>485.2803239247603</v>
+        <v>485.2803239247601</v>
       </c>
       <c r="P5" t="n">
-        <v>414.1755291126881</v>
+        <v>414.1755291126879</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.0285736004923</v>
+        <v>311.0285736004922</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868892</v>
+        <v>180.9230001868891</v>
       </c>
       <c r="S5" t="n">
-        <v>65.63242579362407</v>
+        <v>65.63242579362404</v>
       </c>
       <c r="T5" t="n">
-        <v>12.60805019908236</v>
+        <v>12.60805019908235</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2304155376188664</v>
+        <v>0.2304155376188663</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541039766044107</v>
+        <v>1.541039766044106</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88319984574177</v>
+        <v>14.88319984574176</v>
       </c>
       <c r="I6" t="n">
-        <v>53.0577287870449</v>
+        <v>53.05772878704488</v>
       </c>
       <c r="J6" t="n">
-        <v>145.5944631594566</v>
+        <v>145.5944631594565</v>
       </c>
       <c r="K6" t="n">
-        <v>248.8441274844117</v>
+        <v>248.8441274844116</v>
       </c>
       <c r="L6" t="n">
-        <v>334.6016386754978</v>
+        <v>334.6016386754977</v>
       </c>
       <c r="M6" t="n">
-        <v>390.4643301945966</v>
+        <v>390.4643301945964</v>
       </c>
       <c r="N6" t="n">
-        <v>400.7987591519714</v>
+        <v>400.7987591519712</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306783</v>
+        <v>366.6525622306781</v>
       </c>
       <c r="P6" t="n">
-        <v>294.2710058510014</v>
+        <v>294.2710058510012</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7123743462618</v>
+        <v>196.7123743462617</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442158062</v>
+        <v>95.67964442158058</v>
       </c>
       <c r="S6" t="n">
-        <v>28.62413775963503</v>
+        <v>28.62413775963502</v>
       </c>
       <c r="T6" t="n">
-        <v>6.211471688572515</v>
+        <v>6.211471688572511</v>
       </c>
       <c r="U6" t="n">
         <v>0.1013841951344807</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.291955972970541</v>
+        <v>1.29195597297054</v>
       </c>
       <c r="H7" t="n">
-        <v>11.48666310513809</v>
+        <v>11.48666310513808</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351409</v>
+        <v>38.85263962351407</v>
       </c>
       <c r="J7" t="n">
-        <v>91.34128728901722</v>
+        <v>91.34128728901717</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1017939505773</v>
+        <v>150.1017939505772</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178202</v>
+        <v>192.0786180178201</v>
       </c>
       <c r="M7" t="n">
-        <v>202.5199712902821</v>
+        <v>202.519971290282</v>
       </c>
       <c r="N7" t="n">
         <v>197.704499027392</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6121042522361</v>
+        <v>182.612104252236</v>
       </c>
       <c r="P7" t="n">
-        <v>156.256202403637</v>
+        <v>156.2562024036369</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.1836951548332</v>
+        <v>108.1836951548331</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647539</v>
+        <v>58.09103856647536</v>
       </c>
       <c r="S7" t="n">
-        <v>22.5152690925866</v>
+        <v>22.51526909258659</v>
       </c>
       <c r="T7" t="n">
-        <v>5.520175520874127</v>
+        <v>5.520175520874124</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07047032579839321</v>
+        <v>0.07047032579839317</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>270.9486956727265</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>379.4203056753712</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485289</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963292</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862118</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437241</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32789,10 +32789,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.40697967305482</v>
+        <v>63.40697967305471</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2816544973434</v>
+        <v>146.2816544973432</v>
       </c>
       <c r="L5" t="n">
-        <v>218.7498344398791</v>
+        <v>218.7498344398788</v>
       </c>
       <c r="M5" t="n">
-        <v>275.3906701467125</v>
+        <v>275.3906701467123</v>
       </c>
       <c r="N5" t="n">
-        <v>284.5071916056394</v>
+        <v>284.5071916056392</v>
       </c>
       <c r="O5" t="n">
-        <v>255.1821125030736</v>
+        <v>255.1821125030733</v>
       </c>
       <c r="P5" t="n">
-        <v>182.9425333574186</v>
+        <v>182.9425333574184</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.72288372604285</v>
+        <v>88.72288372604268</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.75683649278992</v>
+        <v>18.75683649278983</v>
       </c>
       <c r="K6" t="n">
-        <v>111.0026885100527</v>
+        <v>111.0026885100526</v>
       </c>
       <c r="L6" t="n">
-        <v>196.0472588956236</v>
+        <v>196.0472588956235</v>
       </c>
       <c r="M6" t="n">
-        <v>248.3302962725783</v>
+        <v>248.3302962725781</v>
       </c>
       <c r="N6" t="n">
-        <v>269.4570470686381</v>
+        <v>269.4570470686378</v>
       </c>
       <c r="O6" t="n">
-        <v>224.0563177862338</v>
+        <v>224.0563177862336</v>
       </c>
       <c r="P6" t="n">
-        <v>160.2965984366712</v>
+        <v>160.296598436671</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.73060026024024</v>
+        <v>56.73060026024015</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.08853578004195</v>
+        <v>21.08853578004187</v>
       </c>
       <c r="L7" t="n">
-        <v>57.19394173658196</v>
+        <v>57.19394173658185</v>
       </c>
       <c r="M7" t="n">
-        <v>63.59418734267703</v>
+        <v>63.59418734267695</v>
       </c>
       <c r="N7" t="n">
-        <v>70.01895456215885</v>
+        <v>70.01895456215877</v>
       </c>
       <c r="O7" t="n">
-        <v>44.15556580039333</v>
+        <v>44.15556580039325</v>
       </c>
       <c r="P7" t="n">
-        <v>18.52819835448935</v>
+        <v>18.52819835448929</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>128.8146617507082</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>237.2862717533528</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625074</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.348781916455</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992796</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36437,10 +36437,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
